--- a/templates/products.xlsx
+++ b/templates/products.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="products" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -49,25 +49,10 @@
     <t xml:space="preserve">SHA256</t>
   </si>
   <si>
-    <t xml:space="preserve">KheavyHash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrypt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Для SHA256</t>
   </si>
   <si>
     <t xml:space="preserve">Писать в Th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для KheavyHash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Писать в Gh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для Scrypt</t>
   </si>
 </sst>
 </file>
@@ -77,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -181,11 +166,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,7 +216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,10 +287,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,6 +301,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -333,7 +415,7 @@
   <dimension ref="A1:CF8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,8 +424,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="27.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="18.49"/>
@@ -465,14 +547,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I5" s="16"/>
@@ -484,35 +562,27 @@
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>